--- a/Code/Results/Cases/Case_3_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.570837119231044</v>
+        <v>2.223871366608478</v>
       </c>
       <c r="C2">
-        <v>0.7190726899609388</v>
+        <v>0.2914999872252224</v>
       </c>
       <c r="D2">
-        <v>0.02595280062830341</v>
+        <v>0.0146276085420709</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.113489261965256</v>
+        <v>4.190190993022128</v>
       </c>
       <c r="G2">
-        <v>0.0008398067898855681</v>
+        <v>0.002622544685130013</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.827761733137351</v>
+        <v>2.547437221437491</v>
       </c>
       <c r="J2">
-        <v>0.07098239064543721</v>
+        <v>0.1332338976556851</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.193207051345027</v>
+        <v>0.3829061384361552</v>
       </c>
       <c r="M2">
-        <v>0.4489158564817615</v>
+        <v>0.5025365823670427</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.245059464735391</v>
+        <v>2.156817395947485</v>
       </c>
       <c r="C3">
-        <v>0.6193267282336024</v>
+        <v>0.266344581104903</v>
       </c>
       <c r="D3">
-        <v>0.02211110982543829</v>
+        <v>0.01338830295732407</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.913918717204254</v>
+        <v>4.158147181707932</v>
       </c>
       <c r="G3">
-        <v>0.0008489799247949378</v>
+        <v>0.002628226200481901</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.734527018814418</v>
+        <v>2.533548856834258</v>
       </c>
       <c r="J3">
-        <v>0.07107668495786701</v>
+        <v>0.1331434208125706</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1796589461347935</v>
+        <v>0.3818556923943675</v>
       </c>
       <c r="M3">
-        <v>0.3966785316021131</v>
+        <v>0.4929297616668791</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04865986274956</v>
+        <v>2.117082324608248</v>
       </c>
       <c r="C4">
-        <v>0.5591456018888437</v>
+        <v>0.2510732038874721</v>
       </c>
       <c r="D4">
-        <v>0.01982820034743327</v>
+        <v>0.01262275032486926</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.796796767177668</v>
+        <v>4.140288958729741</v>
       </c>
       <c r="G4">
-        <v>0.000854763617791784</v>
+        <v>0.002631898310926245</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.680337829707128</v>
+        <v>2.526026167812574</v>
       </c>
       <c r="J4">
-        <v>0.07113988564688611</v>
+        <v>0.1330856449885385</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1716205277455529</v>
+        <v>0.3813733727305859</v>
       </c>
       <c r="M4">
-        <v>0.3652686155596072</v>
+        <v>0.4873288713017701</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.969430586165913</v>
+        <v>2.101251029088701</v>
       </c>
       <c r="C5">
-        <v>0.5348503364430712</v>
+        <v>0.2448933027155249</v>
       </c>
       <c r="D5">
-        <v>0.01891416282358804</v>
+        <v>0.01230954806471019</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.750313892386899</v>
+        <v>4.133466852501755</v>
       </c>
       <c r="G5">
-        <v>0.0008571603434145157</v>
+        <v>0.002633441061900575</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.658961349009346</v>
+        <v>2.523212306378369</v>
       </c>
       <c r="J5">
-        <v>0.07116684675425144</v>
+        <v>0.1330615369210548</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1684100598541391</v>
+        <v>0.3812177740218843</v>
       </c>
       <c r="M5">
-        <v>0.3526181513967401</v>
+        <v>0.4851213497459028</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95632028729807</v>
+        <v>2.098644059776916</v>
       </c>
       <c r="C6">
-        <v>0.5308289008439431</v>
+        <v>0.2438697367140605</v>
       </c>
       <c r="D6">
-        <v>0.0187632924638379</v>
+        <v>0.01225746444288589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.742667432891736</v>
+        <v>4.132361497716474</v>
       </c>
       <c r="G6">
-        <v>0.0008575607722078882</v>
+        <v>0.002633700037931241</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.655452706257933</v>
+        <v>2.522760240192</v>
       </c>
       <c r="J6">
-        <v>0.0711713930465816</v>
+        <v>0.1330574995876259</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1678807613830884</v>
+        <v>0.3811944117528512</v>
       </c>
       <c r="M6">
-        <v>0.3505260833260166</v>
+        <v>0.4847593161275867</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047588224300455</v>
+        <v>2.116867356402793</v>
       </c>
       <c r="C7">
-        <v>0.5588170683685405</v>
+        <v>0.2509896848489177</v>
       </c>
       <c r="D7">
-        <v>0.01981581099530416</v>
+        <v>0.01261853145954817</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.796164987799528</v>
+        <v>4.140195112198825</v>
       </c>
       <c r="G7">
-        <v>0.0008547957774007618</v>
+        <v>0.002631918929295999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.680046759449681</v>
+        <v>2.525987201301007</v>
       </c>
       <c r="J7">
-        <v>0.0711402445267475</v>
+        <v>0.1330853221482484</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1715769726037308</v>
+        <v>0.3813711083994065</v>
       </c>
       <c r="M7">
-        <v>0.3650974245643468</v>
+        <v>0.4872987966542865</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.457688028689631</v>
+        <v>2.200452940967637</v>
       </c>
       <c r="C8">
-        <v>0.6844354177724483</v>
+        <v>0.2827899599454895</v>
       </c>
       <c r="D8">
-        <v>0.02461064978260197</v>
+        <v>0.01420120928597868</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.043480233781096</v>
+        <v>4.178764233009105</v>
       </c>
       <c r="G8">
-        <v>0.0008429393815744753</v>
+        <v>0.002624465653888372</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.794940440508284</v>
+        <v>2.542439365503853</v>
       </c>
       <c r="J8">
-        <v>0.07101372099184511</v>
+        <v>0.1332031595001268</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1884742424919708</v>
+        <v>0.3825102123347719</v>
       </c>
       <c r="M8">
-        <v>0.4307554964336404</v>
+        <v>0.4991623602326669</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.296098557981395</v>
+        <v>2.375779452148493</v>
       </c>
       <c r="C9">
-        <v>0.9411413950783754</v>
+        <v>0.3465573184786308</v>
       </c>
       <c r="D9">
-        <v>0.03475826101158219</v>
+        <v>0.01727162818077232</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.577250869642057</v>
+        <v>4.268893361817277</v>
       </c>
       <c r="G9">
-        <v>0.00082080203297343</v>
+        <v>0.002611299604335482</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.047637094296775</v>
+        <v>2.582722657592853</v>
       </c>
       <c r="J9">
-        <v>0.07081434580289381</v>
+        <v>0.1334168344353848</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2240936558196722</v>
+        <v>0.3860330940617445</v>
       </c>
       <c r="M9">
-        <v>0.5656669584110787</v>
+        <v>0.5247906172511634</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.941445159265868</v>
+        <v>2.511596866500156</v>
       </c>
       <c r="C10">
-        <v>1.139110541245373</v>
+        <v>0.3943054336999694</v>
       </c>
       <c r="D10">
-        <v>0.04289438989870575</v>
+        <v>0.01951208163445983</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.008253679050398</v>
+        <v>4.344069920428808</v>
       </c>
       <c r="G10">
-        <v>0.00080507941752607</v>
+        <v>0.002602500145324847</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.254884944128477</v>
+        <v>2.617280159543839</v>
       </c>
       <c r="J10">
-        <v>0.07070855791722153</v>
+        <v>0.1335635401227169</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2521862943836055</v>
+        <v>0.3894061050882272</v>
       </c>
       <c r="M10">
-        <v>0.669934664706588</v>
+        <v>0.5450660496549773</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.243613941392596</v>
+        <v>2.574916535654211</v>
       </c>
       <c r="C11">
-        <v>1.231999537740649</v>
+        <v>0.416231500345873</v>
       </c>
       <c r="D11">
-        <v>0.04680338074764023</v>
+        <v>0.02052904155421942</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.215112331097117</v>
+        <v>4.380242269709669</v>
       </c>
       <c r="G11">
-        <v>0.0007980093565650288</v>
+        <v>0.002598684566870488</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.355119021890658</v>
+        <v>2.634094501042469</v>
       </c>
       <c r="J11">
-        <v>0.07067232844738403</v>
+        <v>0.1336281198529337</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2654893186948044</v>
+        <v>0.391110834741923</v>
       </c>
       <c r="M11">
-        <v>0.7188478881682485</v>
+        <v>0.5546053817431371</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.359486665157419</v>
+        <v>2.599115509775174</v>
       </c>
       <c r="C12">
-        <v>1.267658460139785</v>
+        <v>0.4245644911586055</v>
       </c>
       <c r="D12">
-        <v>0.0483194022257436</v>
+        <v>0.02091389969553603</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.295223302122849</v>
+        <v>4.394225698310152</v>
       </c>
       <c r="G12">
-        <v>0.000795340579342954</v>
+        <v>0.002597266479209711</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.394053521529301</v>
+        <v>2.64062016437714</v>
       </c>
       <c r="J12">
-        <v>0.07066063574842074</v>
+        <v>0.1336522700776079</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2706122308363064</v>
+        <v>0.3917808406490764</v>
       </c>
       <c r="M12">
-        <v>0.7376178786068337</v>
+        <v>0.5582631775824964</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.334463317853817</v>
+        <v>2.593893983989631</v>
       </c>
       <c r="C13">
-        <v>1.259955814713067</v>
+        <v>0.4227684863545846</v>
       </c>
       <c r="D13">
-        <v>0.04799120550779179</v>
+        <v>0.02083102313571317</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.277886959634543</v>
+        <v>4.391201378253356</v>
       </c>
       <c r="G13">
-        <v>0.0007959150279155997</v>
+        <v>0.002597570700750766</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.385622668479826</v>
+        <v>2.639207681420999</v>
       </c>
       <c r="J13">
-        <v>0.07066305817268193</v>
+        <v>0.1336470823584301</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2695049496516191</v>
+        <v>0.3916354554222607</v>
       </c>
       <c r="M13">
-        <v>0.7335638107300966</v>
+        <v>0.5574733835567187</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.25311652435613</v>
+        <v>2.57690296460953</v>
       </c>
       <c r="C14">
-        <v>1.234923043223205</v>
+        <v>0.4169164547353716</v>
       </c>
       <c r="D14">
-        <v>0.04692735090986133</v>
+        <v>0.02056070847256564</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.221666068921024</v>
+        <v>4.381386957288157</v>
       </c>
       <c r="G14">
-        <v>0.0007977896448920314</v>
+        <v>0.002598567363869944</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.358301830146445</v>
+        <v>2.634628189485227</v>
       </c>
       <c r="J14">
-        <v>0.0706713238434622</v>
+        <v>0.1336301127819315</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2659090109014812</v>
+        <v>0.3911654664529181</v>
       </c>
       <c r="M14">
-        <v>0.7203869289606786</v>
+        <v>0.5549053995894724</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.203484609014367</v>
+        <v>2.566524291603116</v>
       </c>
       <c r="C15">
-        <v>1.219655222677829</v>
+        <v>0.4133358484780274</v>
       </c>
       <c r="D15">
-        <v>0.04628055770474759</v>
+        <v>0.02039510369852593</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.187467940120683</v>
+        <v>4.375412609183485</v>
       </c>
       <c r="G15">
-        <v>0.0007989389029081207</v>
+        <v>0.002599181333376512</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.341698284635555</v>
+        <v>2.631843785257331</v>
       </c>
       <c r="J15">
-        <v>0.07067666111826476</v>
+        <v>0.1336196789077144</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2637178304339045</v>
+        <v>0.3908807693890708</v>
       </c>
       <c r="M15">
-        <v>0.7123490622722528</v>
+        <v>0.5533383561148995</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.921888170002092</v>
+        <v>2.507489708647768</v>
       </c>
       <c r="C16">
-        <v>1.133103323453156</v>
+        <v>0.392876690326375</v>
       </c>
       <c r="D16">
-        <v>0.0426435935060212</v>
+        <v>0.01944558267963714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.994970809911393</v>
+        <v>4.3417458562067</v>
       </c>
       <c r="G16">
-        <v>0.0008055428429406793</v>
+        <v>0.002602753259132632</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.248464287732602</v>
+        <v>2.616203412161028</v>
       </c>
       <c r="J16">
-        <v>0.0707111906741873</v>
+        <v>0.1335592767422185</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2513282758580289</v>
+        <v>0.3892981217317981</v>
       </c>
       <c r="M16">
-        <v>0.6667707318796943</v>
+        <v>0.5444489914267976</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.751481723262145</v>
+        <v>2.471667467079953</v>
       </c>
       <c r="C17">
-        <v>1.080783118698321</v>
+        <v>0.3803786109415341</v>
       </c>
       <c r="D17">
-        <v>0.04046958232321174</v>
+        <v>0.01886256602719527</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.879796063911272</v>
+        <v>4.321599341440276</v>
       </c>
       <c r="G17">
-        <v>0.0008096129765135429</v>
+        <v>0.00260499239513487</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.192875257018144</v>
+        <v>2.606889537932872</v>
       </c>
       <c r="J17">
-        <v>0.07073562724711513</v>
+        <v>0.1335216733045774</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2438685326266778</v>
+        <v>0.3883708211781851</v>
       </c>
       <c r="M17">
-        <v>0.6392125040782943</v>
+        <v>0.5390765896828924</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.654263432925859</v>
+        <v>2.45120797909658</v>
       </c>
       <c r="C18">
-        <v>1.050951296057178</v>
+        <v>0.3732093275954185</v>
       </c>
       <c r="D18">
-        <v>0.03923831004615153</v>
+        <v>0.01852701529541889</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.81455133602617</v>
+        <v>4.310197303162596</v>
       </c>
       <c r="G18">
-        <v>0.0008119619726481822</v>
+        <v>0.002606297929471907</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.16145436102191</v>
+        <v>2.601635344595167</v>
       </c>
       <c r="J18">
-        <v>0.07075078001760016</v>
+        <v>0.1334998413999173</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2396264894973115</v>
+        <v>0.3878534964411671</v>
       </c>
       <c r="M18">
-        <v>0.6234988440873295</v>
+        <v>0.5360162616946909</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.621477536136922</v>
+        <v>2.444305558614019</v>
       </c>
       <c r="C19">
-        <v>1.040893478858777</v>
+        <v>0.3707852262599545</v>
       </c>
       <c r="D19">
-        <v>0.03882454802349145</v>
+        <v>0.01841336427322915</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.792626063562977</v>
+        <v>4.306368607329347</v>
       </c>
       <c r="G19">
-        <v>0.0008127587644319872</v>
+        <v>0.002606742995281548</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.15090722221494</v>
+        <v>2.599874004132573</v>
       </c>
       <c r="J19">
-        <v>0.07075609025848006</v>
+        <v>0.1334924143911458</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2381982687328446</v>
+        <v>0.3876810940251261</v>
       </c>
       <c r="M19">
-        <v>0.6182010360098857</v>
+        <v>0.5349851936051024</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.769538058774685</v>
+        <v>2.475465846280031</v>
       </c>
       <c r="C20">
-        <v>1.08632512080294</v>
+        <v>0.3817070532867888</v>
       </c>
       <c r="D20">
-        <v>0.04069898652064552</v>
+        <v>0.01892465082513439</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.891951497400754</v>
+        <v>4.32372473923013</v>
       </c>
       <c r="G20">
-        <v>0.0008091789023268707</v>
+        <v>0.002604752210655092</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.198734798897263</v>
+        <v>2.607870357778253</v>
       </c>
       <c r="J20">
-        <v>0.07073291023571393</v>
+        <v>0.1335256972659833</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2446575359821139</v>
+        <v>0.3884678746803019</v>
       </c>
       <c r="M20">
-        <v>0.6421316987324275</v>
+        <v>0.5396454133489996</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.27696892024602</v>
+        <v>2.581887632728069</v>
       </c>
       <c r="C21">
-        <v>1.242261977667852</v>
+        <v>0.4186345178273427</v>
       </c>
       <c r="D21">
-        <v>0.0472388085809925</v>
+        <v>0.02064011239435359</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.238129296116512</v>
+        <v>4.384261920627267</v>
       </c>
       <c r="G21">
-        <v>0.0007972388223868601</v>
+        <v>0.002598273894012425</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.366299028125454</v>
+        <v>2.635968988302352</v>
       </c>
       <c r="J21">
-        <v>0.07066883819949643</v>
+        <v>0.1336351053836857</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2669628221811138</v>
+        <v>0.3913028499598568</v>
       </c>
       <c r="M21">
-        <v>0.7242502790927716</v>
+        <v>0.5556584447716162</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.617164380206987</v>
+        <v>2.652729883675818</v>
       </c>
       <c r="C22">
-        <v>1.347039926828813</v>
+        <v>0.4429442599279128</v>
       </c>
       <c r="D22">
-        <v>0.05172487722935415</v>
+        <v>0.02175988906893878</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.474868685509449</v>
+        <v>4.425492889644204</v>
       </c>
       <c r="G22">
-        <v>0.0007894829657113439</v>
+        <v>0.002594196017507544</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.481581540659619</v>
+        <v>2.655257091079747</v>
       </c>
       <c r="J22">
-        <v>0.07063896792985069</v>
+        <v>0.1337048363998248</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2820437534006857</v>
+        <v>0.3932982391574598</v>
       </c>
       <c r="M22">
-        <v>0.7793824260885316</v>
+        <v>0.5663888666301276</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.434734613503906</v>
+        <v>2.614801923750065</v>
       </c>
       <c r="C23">
-        <v>1.29082761926054</v>
+        <v>0.4299534472287974</v>
       </c>
       <c r="D23">
-        <v>0.04930899927550314</v>
+        <v>0.02116234300650888</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.347473395350931</v>
+        <v>4.403334046111297</v>
       </c>
       <c r="G23">
-        <v>0.0007936192677312642</v>
+        <v>0.002596358225166302</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.419480546321552</v>
+        <v>2.644877744284869</v>
       </c>
       <c r="J23">
-        <v>0.07065369128395638</v>
+        <v>0.1336677800778521</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2739450542075588</v>
+        <v>0.3922202271418342</v>
       </c>
       <c r="M23">
-        <v>0.7498107977539377</v>
+        <v>0.56063758225973</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.761372467012791</v>
+        <v>2.473748177965376</v>
       </c>
       <c r="C24">
-        <v>1.083818815583243</v>
+        <v>0.3811064146176477</v>
       </c>
       <c r="D24">
-        <v>0.04059521539414845</v>
+        <v>0.01889658343604594</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.886453018883714</v>
+        <v>4.322763284932762</v>
       </c>
       <c r="G24">
-        <v>0.0008093751188755094</v>
+        <v>0.00260486074141912</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.196084033308907</v>
+        <v>2.607426616247622</v>
       </c>
       <c r="J24">
-        <v>0.07073413518136107</v>
+        <v>0.1335238786970843</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.244300682964294</v>
+        <v>0.3884239475987528</v>
       </c>
       <c r="M24">
-        <v>0.6408115286728773</v>
+        <v>0.5393881599069275</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.064805415355636</v>
+        <v>2.3271222892065</v>
       </c>
       <c r="C25">
-        <v>0.8702931418085029</v>
+        <v>0.3291517766342338</v>
       </c>
       <c r="D25">
-        <v>0.03191168631075669</v>
+        <v>0.01644405284012862</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.426752144551926</v>
+        <v>4.242946692876416</v>
       </c>
       <c r="G25">
-        <v>0.0008266848450676127</v>
+        <v>0.002614707215404617</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.975872059337249</v>
+        <v>2.570958909192115</v>
       </c>
       <c r="J25">
-        <v>0.07086203971820826</v>
+        <v>0.1333608591908488</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2141523313387523</v>
+        <v>0.384942177719708</v>
       </c>
       <c r="M25">
-        <v>0.5283764897877958</v>
+        <v>0.5176039066524254</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.223871366608478</v>
+        <v>2.570837119231157</v>
       </c>
       <c r="C2">
-        <v>0.2914999872252224</v>
+        <v>0.7190726899608535</v>
       </c>
       <c r="D2">
-        <v>0.0146276085420709</v>
+        <v>0.02595280062838867</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.190190993022128</v>
+        <v>3.113489261965299</v>
       </c>
       <c r="G2">
-        <v>0.002622544685130013</v>
+        <v>0.0008398067899400492</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.547437221437491</v>
+        <v>1.827761733137379</v>
       </c>
       <c r="J2">
-        <v>0.1332338976556851</v>
+        <v>0.07098239064549494</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3829061384361552</v>
+        <v>0.1932070513450057</v>
       </c>
       <c r="M2">
-        <v>0.5025365823670427</v>
+        <v>0.4489158564817615</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.156817395947485</v>
+        <v>2.245059464735277</v>
       </c>
       <c r="C3">
-        <v>0.266344581104903</v>
+        <v>0.6193267282336024</v>
       </c>
       <c r="D3">
-        <v>0.01338830295732407</v>
+        <v>0.0221111098254454</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.158147181707932</v>
+        <v>2.913918717204268</v>
       </c>
       <c r="G3">
-        <v>0.002628226200481901</v>
+        <v>0.0008489799248542107</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.533548856834258</v>
+        <v>1.734527018814433</v>
       </c>
       <c r="J3">
-        <v>0.1331434208125706</v>
+        <v>0.07107668495797537</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3818556923943675</v>
+        <v>0.1796589461347722</v>
       </c>
       <c r="M3">
-        <v>0.4929297616668791</v>
+        <v>0.396678531602106</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.117082324608248</v>
+        <v>2.048659862749446</v>
       </c>
       <c r="C4">
-        <v>0.2510732038874721</v>
+        <v>0.5591456018890426</v>
       </c>
       <c r="D4">
-        <v>0.01262275032486926</v>
+        <v>0.01982820034766419</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.140288958729741</v>
+        <v>2.796796767177639</v>
       </c>
       <c r="G4">
-        <v>0.002631898310926245</v>
+        <v>0.0008547636177344859</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.526026167812574</v>
+        <v>1.680337829707085</v>
       </c>
       <c r="J4">
-        <v>0.1330856449885385</v>
+        <v>0.07113988564687013</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3813733727305859</v>
+        <v>0.1716205277456382</v>
       </c>
       <c r="M4">
-        <v>0.4873288713017701</v>
+        <v>0.3652686155596072</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.101251029088701</v>
+        <v>1.969430586165743</v>
       </c>
       <c r="C5">
-        <v>0.2448933027155249</v>
+        <v>0.5348503364427017</v>
       </c>
       <c r="D5">
-        <v>0.01230954806471019</v>
+        <v>0.01891416282357739</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.133466852501755</v>
+        <v>2.750313892386856</v>
       </c>
       <c r="G5">
-        <v>0.002633441061900575</v>
+        <v>0.0008571603434669718</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.523212306378369</v>
+        <v>1.658961349009346</v>
       </c>
       <c r="J5">
-        <v>0.1330615369210548</v>
+        <v>0.07116684675434692</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3812177740218843</v>
+        <v>0.168410059854132</v>
       </c>
       <c r="M5">
-        <v>0.4851213497459028</v>
+        <v>0.3526181513967472</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.098644059776916</v>
+        <v>1.956320287297956</v>
       </c>
       <c r="C6">
-        <v>0.2438697367140605</v>
+        <v>0.5308289008439147</v>
       </c>
       <c r="D6">
-        <v>0.01225746444288589</v>
+        <v>0.01876329246429265</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.132361497716474</v>
+        <v>2.742667432891722</v>
       </c>
       <c r="G6">
-        <v>0.002633700037931241</v>
+        <v>0.0008575607721471179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.522760240192</v>
+        <v>1.655452706257947</v>
       </c>
       <c r="J6">
-        <v>0.1330574995876259</v>
+        <v>0.07117139304656561</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3811944117528512</v>
+        <v>0.1678807613832021</v>
       </c>
       <c r="M6">
-        <v>0.4847593161275867</v>
+        <v>0.3505260833260166</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.116867356402793</v>
+        <v>2.047588224300341</v>
       </c>
       <c r="C7">
-        <v>0.2509896848489177</v>
+        <v>0.5588170683690237</v>
       </c>
       <c r="D7">
-        <v>0.01261853145954817</v>
+        <v>0.01981581099519047</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.140195112198825</v>
+        <v>2.796164987799528</v>
       </c>
       <c r="G7">
-        <v>0.002631918929295999</v>
+        <v>0.0008547957773999847</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.525987201301007</v>
+        <v>1.680046759449695</v>
       </c>
       <c r="J7">
-        <v>0.1330853221482484</v>
+        <v>0.07114024452668932</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3813711083994065</v>
+        <v>0.1715769726037166</v>
       </c>
       <c r="M7">
-        <v>0.4872987966542865</v>
+        <v>0.3650974245643468</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.200452940967637</v>
+        <v>2.457688028689518</v>
       </c>
       <c r="C8">
-        <v>0.2827899599454895</v>
+        <v>0.6844354177721641</v>
       </c>
       <c r="D8">
-        <v>0.01420120928597868</v>
+        <v>0.02461064978280092</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.178764233009105</v>
+        <v>3.043480233781153</v>
       </c>
       <c r="G8">
-        <v>0.002624465653888372</v>
+        <v>0.0008429393813894828</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.542439365503853</v>
+        <v>1.79494044050827</v>
       </c>
       <c r="J8">
-        <v>0.1332031595001268</v>
+        <v>0.07101372099188996</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3825102123347719</v>
+        <v>0.1884742424918286</v>
       </c>
       <c r="M8">
-        <v>0.4991623602326669</v>
+        <v>0.430755496433612</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.375779452148493</v>
+        <v>3.296098557981793</v>
       </c>
       <c r="C9">
-        <v>0.3465573184786308</v>
+        <v>0.9411413950780911</v>
       </c>
       <c r="D9">
-        <v>0.01727162818077232</v>
+        <v>0.03475826101148272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.268893361817277</v>
+        <v>3.577250869642</v>
       </c>
       <c r="G9">
-        <v>0.002611299604335482</v>
+        <v>0.0008208020329206024</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.582722657592853</v>
+        <v>2.047637094296789</v>
       </c>
       <c r="J9">
-        <v>0.1334168344353848</v>
+        <v>0.07081434580295687</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3860330940617445</v>
+        <v>0.2240936558196722</v>
       </c>
       <c r="M9">
-        <v>0.5247906172511634</v>
+        <v>0.5656669584110787</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.511596866500156</v>
+        <v>3.941445159265982</v>
       </c>
       <c r="C10">
-        <v>0.3943054336999694</v>
+        <v>1.139110541245032</v>
       </c>
       <c r="D10">
-        <v>0.01951208163445983</v>
+        <v>0.04289438989847127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.344069920428808</v>
+        <v>4.008253679050398</v>
       </c>
       <c r="G10">
-        <v>0.002602500145324847</v>
+        <v>0.0008050794175102136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.617280159543839</v>
+        <v>2.254884944128477</v>
       </c>
       <c r="J10">
-        <v>0.1335635401227169</v>
+        <v>0.07070855791721087</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3894061050882272</v>
+        <v>0.2521862943833497</v>
       </c>
       <c r="M10">
-        <v>0.5450660496549773</v>
+        <v>0.6699346647065809</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.574916535654211</v>
+        <v>4.243613941392766</v>
       </c>
       <c r="C11">
-        <v>0.416231500345873</v>
+        <v>1.231999537740364</v>
       </c>
       <c r="D11">
-        <v>0.02052904155421942</v>
+        <v>0.04680338074822288</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.380242269709669</v>
+        <v>4.215112331097089</v>
       </c>
       <c r="G11">
-        <v>0.002598684566870488</v>
+        <v>0.0007980093565616982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.634094501042469</v>
+        <v>2.355119021890687</v>
       </c>
       <c r="J11">
-        <v>0.1336281198529337</v>
+        <v>0.07067232844746751</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.391110834741923</v>
+        <v>0.2654893186949607</v>
       </c>
       <c r="M11">
-        <v>0.5546053817431371</v>
+        <v>0.7188478881682698</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.599115509775174</v>
+        <v>4.359486665157419</v>
       </c>
       <c r="C12">
-        <v>0.4245644911586055</v>
+        <v>1.267658460139614</v>
       </c>
       <c r="D12">
-        <v>0.02091389969553603</v>
+        <v>0.0483194022254807</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.394225698310152</v>
+        <v>4.295223302122821</v>
       </c>
       <c r="G12">
-        <v>0.002597266479209711</v>
+        <v>0.0007953405792755793</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.64062016437714</v>
+        <v>2.394053521529344</v>
       </c>
       <c r="J12">
-        <v>0.1336522700776079</v>
+        <v>0.07066063574846027</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3917808406490764</v>
+        <v>0.2706122308364058</v>
       </c>
       <c r="M12">
-        <v>0.5582631775824964</v>
+        <v>0.7376178786068337</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.593893983989631</v>
+        <v>4.334463317853874</v>
       </c>
       <c r="C13">
-        <v>0.4227684863545846</v>
+        <v>1.259955814713237</v>
       </c>
       <c r="D13">
-        <v>0.02083102313571317</v>
+        <v>0.04799120550781311</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.391201378253356</v>
+        <v>4.277886959634458</v>
       </c>
       <c r="G13">
-        <v>0.002597570700750766</v>
+        <v>0.0007959150277869753</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.639207681420999</v>
+        <v>2.385622668479826</v>
       </c>
       <c r="J13">
-        <v>0.1336470823584301</v>
+        <v>0.07066305817259178</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3916354554222607</v>
+        <v>0.2695049496516617</v>
       </c>
       <c r="M13">
-        <v>0.5574733835567187</v>
+        <v>0.7335638107300753</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.57690296460953</v>
+        <v>4.253116524356244</v>
       </c>
       <c r="C14">
-        <v>0.4169164547353716</v>
+        <v>1.234923043223489</v>
       </c>
       <c r="D14">
-        <v>0.02056070847256564</v>
+        <v>0.04692735090925026</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.381386957288157</v>
+        <v>4.221666068920996</v>
       </c>
       <c r="G14">
-        <v>0.002598567363869944</v>
+        <v>0.0007977896448765477</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.634628189485227</v>
+        <v>2.358301830146473</v>
       </c>
       <c r="J14">
-        <v>0.1336301127819315</v>
+        <v>0.07067132384356745</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3911654664529181</v>
+        <v>0.2659090109015096</v>
       </c>
       <c r="M14">
-        <v>0.5549053995894724</v>
+        <v>0.7203869289606786</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.566524291603116</v>
+        <v>4.203484609014424</v>
       </c>
       <c r="C15">
-        <v>0.4133358484780274</v>
+        <v>1.219655222677545</v>
       </c>
       <c r="D15">
-        <v>0.02039510369852593</v>
+        <v>0.04628055770457706</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.375412609183485</v>
+        <v>4.18746794012074</v>
       </c>
       <c r="G15">
-        <v>0.002599181333376512</v>
+        <v>0.0007989389029772809</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.631843785257331</v>
+        <v>2.341698284635555</v>
       </c>
       <c r="J15">
-        <v>0.1336196789077144</v>
+        <v>0.07067666111839577</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3908807693890708</v>
+        <v>0.2637178304340608</v>
       </c>
       <c r="M15">
-        <v>0.5533383561148995</v>
+        <v>0.7123490622722599</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507489708647768</v>
+        <v>3.921888170002092</v>
       </c>
       <c r="C16">
-        <v>0.392876690326375</v>
+        <v>1.133103323453213</v>
       </c>
       <c r="D16">
-        <v>0.01944558267963714</v>
+        <v>0.04264359350589331</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.3417458562067</v>
+        <v>3.994970809911393</v>
       </c>
       <c r="G16">
-        <v>0.002602753259132632</v>
+        <v>0.0008055428429324636</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.616203412161028</v>
+        <v>2.248464287732602</v>
       </c>
       <c r="J16">
-        <v>0.1335592767422185</v>
+        <v>0.07071119067414777</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3892981217317981</v>
+        <v>0.2513282758580289</v>
       </c>
       <c r="M16">
-        <v>0.5444489914267976</v>
+        <v>0.6667707318797014</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.471667467079953</v>
+        <v>3.751481723261861</v>
       </c>
       <c r="C17">
-        <v>0.3803786109415341</v>
+        <v>1.080783118697866</v>
       </c>
       <c r="D17">
-        <v>0.01886256602719527</v>
+        <v>0.04046958232304121</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.321599341440276</v>
+        <v>3.879796063911243</v>
       </c>
       <c r="G17">
-        <v>0.00260499239513487</v>
+        <v>0.0008096129764517907</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.606889537932872</v>
+        <v>2.192875257018159</v>
       </c>
       <c r="J17">
-        <v>0.1335216733045774</v>
+        <v>0.07073562724707072</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3883708211781851</v>
+        <v>0.2438685326266921</v>
       </c>
       <c r="M17">
-        <v>0.5390765896828924</v>
+        <v>0.6392125040782943</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.45120797909658</v>
+        <v>3.654263432925859</v>
       </c>
       <c r="C18">
-        <v>0.3732093275954185</v>
+        <v>1.050951296057178</v>
       </c>
       <c r="D18">
-        <v>0.01852701529541889</v>
+        <v>0.03923831004614442</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.310197303162596</v>
+        <v>3.814551336026227</v>
       </c>
       <c r="G18">
-        <v>0.002606297929471907</v>
+        <v>0.0008119619725881633</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.601635344595167</v>
+        <v>2.161454361021924</v>
       </c>
       <c r="J18">
-        <v>0.1334998413999173</v>
+        <v>0.07075078001758017</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3878534964411671</v>
+        <v>0.2396264894975246</v>
       </c>
       <c r="M18">
-        <v>0.5360162616946909</v>
+        <v>0.6234988440873153</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.444305558614019</v>
+        <v>3.621477536136808</v>
       </c>
       <c r="C19">
-        <v>0.3707852262599545</v>
+        <v>1.040893478858607</v>
       </c>
       <c r="D19">
-        <v>0.01841336427322915</v>
+        <v>0.0388245480236904</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.306368607329347</v>
+        <v>3.792626063562977</v>
       </c>
       <c r="G19">
-        <v>0.002606742995281548</v>
+        <v>0.0008127587643807446</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.599874004132573</v>
+        <v>2.150907222214911</v>
       </c>
       <c r="J19">
-        <v>0.1334924143911458</v>
+        <v>0.07075609025848095</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3876810940251261</v>
+        <v>0.2381982687329582</v>
       </c>
       <c r="M19">
-        <v>0.5349851936051024</v>
+        <v>0.6182010360098928</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.475465846280031</v>
+        <v>3.769538058774685</v>
       </c>
       <c r="C20">
-        <v>0.3817070532867888</v>
+        <v>1.08632512080311</v>
       </c>
       <c r="D20">
-        <v>0.01892465082513439</v>
+        <v>0.04069898652080894</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.32372473923013</v>
+        <v>3.891951497400839</v>
       </c>
       <c r="G20">
-        <v>0.002604752210655092</v>
+        <v>0.0008091789024311574</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.607870357778253</v>
+        <v>2.198734798897291</v>
       </c>
       <c r="J20">
-        <v>0.1335256972659833</v>
+        <v>0.0707329102358214</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3884678746803019</v>
+        <v>0.2446575359820997</v>
       </c>
       <c r="M20">
-        <v>0.5396454133489996</v>
+        <v>0.6421316987324275</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.581887632728069</v>
+        <v>4.276968920246077</v>
       </c>
       <c r="C21">
-        <v>0.4186345178273427</v>
+        <v>1.242261977667852</v>
       </c>
       <c r="D21">
-        <v>0.02064011239435359</v>
+        <v>0.04723880858094276</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.384261920627267</v>
+        <v>4.238129296116455</v>
       </c>
       <c r="G21">
-        <v>0.002598273894012425</v>
+        <v>0.0007972388223733683</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.635968988302352</v>
+        <v>2.366299028125411</v>
       </c>
       <c r="J21">
-        <v>0.1336351053836857</v>
+        <v>0.07066883819943826</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3913028499598568</v>
+        <v>0.2669628221812133</v>
       </c>
       <c r="M21">
-        <v>0.5556584447716162</v>
+        <v>0.7242502790927574</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.652729883675818</v>
+        <v>4.617164380206816</v>
       </c>
       <c r="C22">
-        <v>0.4429442599279128</v>
+        <v>1.34703992682887</v>
       </c>
       <c r="D22">
-        <v>0.02175988906893878</v>
+        <v>0.05172487722944652</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.425492889644204</v>
+        <v>4.474868685509477</v>
       </c>
       <c r="G22">
-        <v>0.002594196017507544</v>
+        <v>0.0007894829655805744</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.655257091079747</v>
+        <v>2.481581540659619</v>
       </c>
       <c r="J22">
-        <v>0.1337048363998248</v>
+        <v>0.07063896792990665</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3932982391574598</v>
+        <v>0.2820437534007141</v>
       </c>
       <c r="M22">
-        <v>0.5663888666301276</v>
+        <v>0.7793824260885458</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.614801923750065</v>
+        <v>4.434734613503906</v>
       </c>
       <c r="C23">
-        <v>0.4299534472287974</v>
+        <v>1.290827619260483</v>
       </c>
       <c r="D23">
-        <v>0.02116234300650888</v>
+        <v>0.0493089992758442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.403334046111297</v>
+        <v>4.347473395350931</v>
       </c>
       <c r="G23">
-        <v>0.002596358225166302</v>
+        <v>0.0007936192677819405</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.644877744284869</v>
+        <v>2.419480546321566</v>
       </c>
       <c r="J23">
-        <v>0.1336677800778521</v>
+        <v>0.0706536912841873</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3922202271418342</v>
+        <v>0.2739450542075446</v>
       </c>
       <c r="M23">
-        <v>0.56063758225973</v>
+        <v>0.7498107977539448</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.473748177965376</v>
+        <v>3.761372467012791</v>
       </c>
       <c r="C24">
-        <v>0.3811064146176477</v>
+        <v>1.083818815583413</v>
       </c>
       <c r="D24">
-        <v>0.01889658343604594</v>
+        <v>0.04059521539424793</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.322763284932762</v>
+        <v>3.886453018883714</v>
       </c>
       <c r="G24">
-        <v>0.00260486074141912</v>
+        <v>0.0008093751189986783</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.607426616247622</v>
+        <v>2.196084033308892</v>
       </c>
       <c r="J24">
-        <v>0.1335238786970843</v>
+        <v>0.0707341351812909</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3884239475987528</v>
+        <v>0.2443006829644645</v>
       </c>
       <c r="M24">
-        <v>0.5393881599069275</v>
+        <v>0.6408115286728915</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3271222892065</v>
+        <v>3.064805415355693</v>
       </c>
       <c r="C25">
-        <v>0.3291517766342338</v>
+        <v>0.8702931418084461</v>
       </c>
       <c r="D25">
-        <v>0.01644405284012862</v>
+        <v>0.03191168631074248</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.242946692876416</v>
+        <v>3.426752144551926</v>
       </c>
       <c r="G25">
-        <v>0.002614707215404617</v>
+        <v>0.0008266848450000141</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.570958909192115</v>
+        <v>1.975872059337291</v>
       </c>
       <c r="J25">
-        <v>0.1333608591908488</v>
+        <v>0.07086203971824201</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.384942177719708</v>
+        <v>0.2141523313388376</v>
       </c>
       <c r="M25">
-        <v>0.5176039066524254</v>
+        <v>0.5283764897877958</v>
       </c>
       <c r="N25">
         <v>0</v>
